--- a/interview/codes/programming questions.xlsx
+++ b/interview/codes/programming questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>reverse</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>remove the duplicate characters</t>
+  </si>
+  <si>
+    <t>rotate 90 degree</t>
+  </si>
+  <si>
+    <t>same strings but in different order</t>
+  </si>
+  <si>
+    <t>reverse a interger</t>
+  </si>
+  <si>
+    <t>socket programming</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>small or big endian</t>
+  </si>
+  <si>
+    <t>double linkedlist</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,102 +515,164 @@
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/interview/codes/programming questions.xlsx
+++ b/interview/codes/programming questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>reverse</t>
   </si>
@@ -455,219 +455,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1" s="1">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="1">
         <v>43071</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    </row>
+    <row r="26" spans="2:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="27" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D28">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
         <v>25</v>
       </c>
     </row>

--- a/interview/codes/programming questions.xlsx
+++ b/interview/codes/programming questions.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/interview/codes/programming questions.xlsx
+++ b/interview/codes/programming questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +470,9 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
